--- a/M_analysis/analyssis_example_202310-202312/graph-properties_20231001-29.xlsx
+++ b/M_analysis/analyssis_example_202310-202312/graph-properties_20231001-29.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kouamano/gitsrc/log-analysis/M_analysis/analyssis_example_202310-202312/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E13E29-2F22-0B4A-9A69-0A03600A9363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>表1</t>
   </si>
@@ -341,16 +364,59 @@
   </si>
   <si>
     <t>キルヒホフグラフ固有値列のクラス数</t>
+  </si>
+  <si>
+    <t>宿題となっておりますReferred graph論文のまとめ、及びNII RDCユーザーストーリー関連部分の文章案作成は別途進めております。どうぞよろしくお願いします。</t>
+  </si>
+  <si>
+    <t>南山さん</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ミナミヤマ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メモ・宿題</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">シュクダイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大波さん</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オオナミサン </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>曜日で集計をわけるのはどうか -&gt; 被覆の仮説の検証（傍証）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヨウビデ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">シュウケイクォ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ヒフク </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">カセツノ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ケンショウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ボウショウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -365,6 +431,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Tsukushi A Round Gothic Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -502,90 +582,152 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -784,7 +926,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -802,7 +944,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -831,7 +973,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -856,7 +998,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -881,7 +1023,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -906,7 +1048,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -931,7 +1073,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +1098,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1123,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,7 +1148,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,7 +1173,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,9 +1186,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1063,7 +1211,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1081,7 +1229,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,7 +1254,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1279,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,7 +1304,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,7 +1329,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1354,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1231,7 +1379,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1404,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1429,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,7 +1454,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,9 +1467,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1335,7 +1489,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1353,7 +1507,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1382,7 +1536,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1561,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1432,7 +1586,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1457,7 +1611,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,7 +1636,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1507,7 +1661,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1532,7 +1686,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,7 +1711,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1582,7 +1736,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1595,1617 +1749,1668 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:AI26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.59765625" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="35" width="19.6016" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="19.6016" style="1" customWidth="1"/>
+    <col min="1" max="36" width="19.59765625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="19.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:35" ht="26" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
     </row>
-    <row r="2" ht="33.5" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
+    <row r="2" spans="1:35" ht="33.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="4">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s" s="4">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s" s="4">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s" s="4">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s" s="4">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s" s="4">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s" s="4">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s" s="4">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s" s="4">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s" s="4">
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s" s="4">
+      <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s" s="4">
+      <c r="V2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s" s="4">
+      <c r="W2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s" s="4">
+      <c r="X2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s" s="4">
+      <c r="Y2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s" s="4">
+      <c r="Z2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s" s="4">
+      <c r="AA2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s" s="4">
+      <c r="AB2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s" s="4">
+      <c r="AC2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s" s="4">
+      <c r="AD2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s" s="4">
+      <c r="AE2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s" s="4">
+      <c r="AF2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s" s="4">
+      <c r="AG2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s" s="4">
+      <c r="AH2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s" s="4">
+      <c r="AI2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" t="s" s="8">
+    <row r="3" spans="1:35" ht="18.5" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
     </row>
-    <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>121359</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>183802</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>190096</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>189729</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>174420</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>167499</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>116212</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f>SUM(B4:H4)</f>
         <v>1143117</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="11">
+      <c r="J4" s="11"/>
+      <c r="K4" s="10">
         <v>147944</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>188221</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>185423</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>186335</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>168331</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>140863</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>116407</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <v>1133524</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <v>188042</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
         <v>188539</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="10">
         <v>184087</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="10">
         <v>183591</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="10">
         <v>184136</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="10">
         <v>132101</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="10">
         <v>145188</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="10">
         <v>1205684</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="10">
         <v>195566</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB4" s="10">
         <v>199702</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AC4" s="10">
         <v>196779</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AD4" s="10">
         <v>196291</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="10">
         <v>170944</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="10">
         <v>133524</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="10">
         <v>138322</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="10">
         <v>1231128</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="10">
         <v>4713453</v>
       </c>
     </row>
-    <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="10">
-        <v>2.848070600450</v>
-      </c>
-      <c r="C5" s="11">
-        <v>3.729524161870</v>
-      </c>
-      <c r="D5" s="11">
-        <v>4.369976222540</v>
-      </c>
-      <c r="E5" s="11">
-        <v>4.506253656530</v>
-      </c>
-      <c r="F5" s="11">
-        <v>4.895998165350</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4.0961737085</v>
-      </c>
-      <c r="H5" s="11">
-        <v>3.146723229960</v>
-      </c>
-      <c r="I5" s="11">
-        <v>4.043826659910</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11">
-        <v>3.837715622130</v>
-      </c>
-      <c r="L5" s="11">
-        <v>4.730476408050</v>
-      </c>
-      <c r="M5" s="11">
-        <v>4.786461226490</v>
-      </c>
-      <c r="N5" s="11">
-        <v>7.285480451870</v>
-      </c>
-      <c r="O5" s="11">
-        <v>4.217779256350</v>
-      </c>
-      <c r="P5" s="11">
-        <v>3.062791506640</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>3.327385810130</v>
-      </c>
-      <c r="R5" s="11">
-        <v>4.615649955360</v>
-      </c>
-      <c r="S5" s="11">
-        <v>4.335781367990</v>
-      </c>
-      <c r="T5" s="11">
-        <v>4.719946536260</v>
-      </c>
-      <c r="U5" s="11">
-        <v>4.509172293540</v>
-      </c>
-      <c r="V5" s="11">
-        <v>5.183957819280</v>
-      </c>
-      <c r="W5" s="11">
-        <v>3.929856193250</v>
-      </c>
-      <c r="X5" s="11">
-        <v>2.833006563160</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>2.9146968069</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>4.153709429670</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>4.272721229660</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>5.310667895160</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>4.520690724110</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>4.803236011840</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>4.356338918010</v>
-      </c>
-      <c r="AF5" s="11">
-        <v>3.299077319430</v>
-      </c>
-      <c r="AG5" s="11">
-        <v>3.075273636880</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>4.336781390720</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>4.285968482130</v>
+      <c r="B5" s="9">
+        <v>2.8480706004499998</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3.7295241618700001</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4.3699762225400001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4.5062536565300002</v>
+      </c>
+      <c r="F5" s="10">
+        <v>4.89599816535</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4.0961737085000003</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3.1467232299600001</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4.0438266599099997</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10">
+        <v>3.8377156221300002</v>
+      </c>
+      <c r="L5" s="10">
+        <v>4.7304764080500004</v>
+      </c>
+      <c r="M5" s="10">
+        <v>4.7864612264900002</v>
+      </c>
+      <c r="N5" s="10">
+        <v>7.2854804518699998</v>
+      </c>
+      <c r="O5" s="10">
+        <v>4.2177792563500001</v>
+      </c>
+      <c r="P5" s="10">
+        <v>3.06279150664</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>3.32738581013</v>
+      </c>
+      <c r="R5" s="10">
+        <v>4.6156499553600003</v>
+      </c>
+      <c r="S5" s="10">
+        <v>4.3357813679900001</v>
+      </c>
+      <c r="T5" s="10">
+        <v>4.7199465362600002</v>
+      </c>
+      <c r="U5" s="10">
+        <v>4.5091722935399998</v>
+      </c>
+      <c r="V5" s="10">
+        <v>5.1839578192799998</v>
+      </c>
+      <c r="W5" s="10">
+        <v>3.92985619325</v>
+      </c>
+      <c r="X5" s="10">
+        <v>2.8330065631600001</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>2.9146968068999999</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>4.1537094296700001</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>4.2727212296600001</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>5.3106678951599999</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>4.5206907241099996</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>4.8032360118400002</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>4.3563389180099996</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>3.2990773194299998</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>3.07527363688</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>4.3367813907199997</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>4.2859684821300004</v>
       </c>
     </row>
-    <row r="6" ht="63.3" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" spans="1:35" ht="63.25" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s" s="14">
+      <c r="C6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s" s="14">
+      <c r="D6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s" s="14">
+      <c r="E6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s" s="14">
+      <c r="F6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s" s="14">
+      <c r="G6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s" s="14">
+      <c r="H6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s" s="14">
+      <c r="I6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" t="s" s="14">
+      <c r="J6" s="11"/>
+      <c r="K6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="L6" t="s" s="14">
+      <c r="L6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M6" t="s" s="14">
+      <c r="M6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N6" t="s" s="14">
+      <c r="N6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O6" t="s" s="14">
+      <c r="O6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P6" t="s" s="14">
+      <c r="P6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" t="s" s="14">
+      <c r="Q6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R6" t="s" s="14">
+      <c r="R6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="S6" t="s" s="14">
+      <c r="S6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="T6" t="s" s="14">
+      <c r="T6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="U6" t="s" s="14">
+      <c r="U6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V6" t="s" s="14">
+      <c r="V6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W6" t="s" s="14">
+      <c r="W6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="X6" t="s" s="14">
+      <c r="X6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" t="s" s="14">
+      <c r="Y6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Z6" t="s" s="14">
+      <c r="Z6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" t="s" s="14">
+      <c r="AA6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AB6" t="s" s="14">
+      <c r="AB6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AC6" t="s" s="14">
+      <c r="AC6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AD6" t="s" s="14">
+      <c r="AD6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AE6" t="s" s="14">
+      <c r="AE6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AF6" t="s" s="14">
+      <c r="AF6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AG6" t="s" s="14">
+      <c r="AG6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AH6" t="s" s="14">
+      <c r="AH6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AI6" t="s" s="14">
+      <c r="AI6" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>3.1264677527</v>
       </c>
-      <c r="C7" s="11">
-        <v>3.701744268290</v>
-      </c>
-      <c r="D7" s="11">
-        <v>4.059738237520</v>
-      </c>
-      <c r="E7" s="11">
-        <v>4.131245091680</v>
-      </c>
-      <c r="F7" s="11">
-        <v>4.425398463480</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3.938298139090</v>
-      </c>
-      <c r="H7" s="11">
-        <v>3.2161738891</v>
-      </c>
-      <c r="I7" s="11">
-        <v>3.867204319420</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11">
-        <v>3.740983074680</v>
-      </c>
-      <c r="L7" s="11">
-        <v>4.287847795940</v>
-      </c>
-      <c r="M7" s="11">
-        <v>4.351644617980</v>
-      </c>
-      <c r="N7" s="11">
-        <v>4.307156465510</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="C7" s="10">
+        <v>3.7017442682900001</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4.0597382375200004</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4.1312450916800003</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4.4253984634799997</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3.93829813909</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3.2161738890999998</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3.8672043194199999</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10">
+        <v>3.7409830746799999</v>
+      </c>
+      <c r="L7" s="10">
+        <v>4.2878477959400003</v>
+      </c>
+      <c r="M7" s="10">
+        <v>4.3516446179799999</v>
+      </c>
+      <c r="N7" s="10">
+        <v>4.3071564655100003</v>
+      </c>
+      <c r="O7" s="10">
         <v>3.9907860109</v>
       </c>
-      <c r="P7" s="11">
-        <v>3.092529620980</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>3.463863856980</v>
-      </c>
-      <c r="R7" s="11">
-        <v>3.952807351230</v>
-      </c>
-      <c r="S7" s="11">
-        <v>4.0655651397</v>
-      </c>
-      <c r="T7" s="11">
-        <v>4.311362635850</v>
-      </c>
-      <c r="U7" s="11">
-        <v>4.1928327367</v>
-      </c>
-      <c r="V7" s="11">
-        <v>4.422537052470</v>
-      </c>
-      <c r="W7" s="11">
-        <v>3.838641004470</v>
-      </c>
-      <c r="X7" s="11">
-        <v>3.142345629480</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>3.137435600740</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>3.9302155457</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>4.044966916540</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>4.569373366320</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>4.111795465980</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>4.177761588660</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>4.114154342940</v>
-      </c>
-      <c r="AF7" s="11">
-        <v>3.349188160930</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>3.292346842870</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>4.011470781270</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>3.941590379710</v>
+      <c r="P7" s="10">
+        <v>3.0925296209800002</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>3.4638638569800002</v>
+      </c>
+      <c r="R7" s="10">
+        <v>3.9528073512300002</v>
+      </c>
+      <c r="S7" s="10">
+        <v>4.0655651397000003</v>
+      </c>
+      <c r="T7" s="10">
+        <v>4.3113626358500001</v>
+      </c>
+      <c r="U7" s="10">
+        <v>4.1928327366999998</v>
+      </c>
+      <c r="V7" s="10">
+        <v>4.4225370524700001</v>
+      </c>
+      <c r="W7" s="10">
+        <v>3.8386410044699999</v>
+      </c>
+      <c r="X7" s="10">
+        <v>3.1423456294799998</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>3.1374356007399999</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>3.9302155456999999</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>4.04496691654</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>4.5693733663199998</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>4.1117954659800002</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>4.1777615886600001</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>4.11415434294</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>3.3491881609299998</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>3.2923468428699998</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>4.0114707812699999</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>3.94159037971</v>
       </c>
     </row>
-    <row r="8" ht="63.3" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" spans="1:35" ht="63.25" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B8" t="s" s="13">
+      <c r="B8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s" s="14">
+      <c r="C8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s" s="14">
+      <c r="D8" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E8" t="s" s="14">
+      <c r="E8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F8" t="s" s="14">
+      <c r="F8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G8" t="s" s="14">
+      <c r="G8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H8" t="s" s="14">
+      <c r="H8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I8" t="s" s="14">
+      <c r="I8" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" t="s" s="14">
+      <c r="J8" s="11"/>
+      <c r="K8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="L8" t="s" s="14">
+      <c r="L8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M8" t="s" s="14">
+      <c r="M8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="N8" t="s" s="14">
+      <c r="N8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O8" t="s" s="14">
+      <c r="O8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="P8" t="s" s="14">
+      <c r="P8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" t="s" s="14">
+      <c r="Q8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="R8" t="s" s="14">
+      <c r="R8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="S8" t="s" s="14">
+      <c r="S8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="T8" t="s" s="14">
+      <c r="T8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="U8" t="s" s="14">
+      <c r="U8" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="V8" t="s" s="14">
+      <c r="V8" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="W8" t="s" s="14">
+      <c r="W8" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="X8" t="s" s="14">
+      <c r="X8" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" t="s" s="14">
+      <c r="Y8" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" t="s" s="14">
+      <c r="Z8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s" s="14">
+      <c r="AA8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s" s="14">
+      <c r="AB8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AC8" t="s" s="14">
+      <c r="AC8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AD8" t="s" s="14">
+      <c r="AD8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AE8" t="s" s="14">
+      <c r="AE8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AF8" t="s" s="14">
+      <c r="AF8" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="AG8" t="s" s="14">
+      <c r="AG8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AH8" t="s" s="14">
+      <c r="AH8" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AI8" t="s" s="14">
+      <c r="AI8" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" ht="48.3" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" spans="1:35" ht="48.25" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="10">
-        <v>1.339343423780</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1.380413463130</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1.428218979310</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1.439125180110</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1.429322228510</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1.394063336870</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1.419890039060</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1.410372686920</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11">
-        <v>1.400123794120</v>
-      </c>
-      <c r="L9" s="11">
+      <c r="B9" s="9">
+        <v>1.3393434237799999</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.38041346313</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1.42821897931</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.43912518011</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.42932222851</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.3940633368699999</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1.41989003906</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1.41037268692</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10">
+        <v>1.40012379412</v>
+      </c>
+      <c r="L9" s="10">
         <v>1.4387759719</v>
       </c>
-      <c r="M9" s="11">
-        <v>1.428093301070</v>
-      </c>
-      <c r="N9" s="11">
-        <v>2.202943987640</v>
-      </c>
-      <c r="O9" s="11">
-        <v>1.410257785410</v>
-      </c>
-      <c r="P9" s="11">
-        <v>1.463678925230</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>1.350474702850</v>
-      </c>
-      <c r="R9" s="11">
-        <v>1.563139550380</v>
-      </c>
-      <c r="S9" s="11">
-        <v>1.414349775780</v>
-      </c>
-      <c r="T9" s="11">
-        <v>1.425378931670</v>
-      </c>
-      <c r="U9" s="11">
-        <v>1.412279522730</v>
-      </c>
-      <c r="V9" s="11">
-        <v>1.514653527430</v>
-      </c>
-      <c r="W9" s="11">
-        <v>1.3844146502</v>
-      </c>
-      <c r="X9" s="11">
-        <v>1.322385391120</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>1.363641929560</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>1.417543987770</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>1.403207767690</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>1.487843201070</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>1.452759596040</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>1.511515536270</v>
-      </c>
-      <c r="AE9" s="11">
-        <v>1.398883432960</v>
-      </c>
-      <c r="AF9" s="11">
-        <v>1.404347839950</v>
-      </c>
-      <c r="AG9" s="11">
-        <v>1.341539412520</v>
-      </c>
-      <c r="AH9" s="11">
-        <v>1.440087487380</v>
-      </c>
-      <c r="AI9" s="11">
-        <v>1.457024238210</v>
+      <c r="M9" s="10">
+        <v>1.4280933010700001</v>
+      </c>
+      <c r="N9" s="10">
+        <v>2.2029439876399999</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1.41025778541</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1.46367892523</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>1.3504747028499999</v>
+      </c>
+      <c r="R9" s="10">
+        <v>1.5631395503800001</v>
+      </c>
+      <c r="S9" s="10">
+        <v>1.4143497757800001</v>
+      </c>
+      <c r="T9" s="10">
+        <v>1.4253789316700001</v>
+      </c>
+      <c r="U9" s="10">
+        <v>1.41227952273</v>
+      </c>
+      <c r="V9" s="10">
+        <v>1.5146535274299999</v>
+      </c>
+      <c r="W9" s="10">
+        <v>1.3844146502000001</v>
+      </c>
+      <c r="X9" s="10">
+        <v>1.3223853911200001</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>1.36364192956</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>1.41754398777</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>1.4032077676900001</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>1.48784320107</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>1.4527595960399999</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>1.5115155362699999</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>1.39888343296</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>1.40434783995</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>1.34153941252</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>1.44008748738</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>1.45702423821</v>
       </c>
     </row>
-    <row r="10" ht="33.3" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" spans="1:35" ht="33.25" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>198</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>277</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>297</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>295</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>302</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>250</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>216</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>498</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="11">
+      <c r="J10" s="11"/>
+      <c r="K10" s="10">
         <v>234</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>284</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>283</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>286</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <v>277</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>231</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>229</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="10">
         <v>474</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="10">
         <v>283</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="10">
         <v>305</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="10">
         <v>301</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="10">
         <v>288</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="10">
         <v>276</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="10">
         <v>209</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="10">
         <v>199</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="10">
         <v>487</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="10">
         <v>279</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AB10" s="10">
         <v>331</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AC10" s="10">
         <v>324</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AD10" s="10">
         <v>305</v>
       </c>
-      <c r="AE10" s="11">
+      <c r="AE10" s="10">
         <v>294</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AF10" s="10">
         <v>232</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AG10" s="10">
         <v>226</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AH10" s="10">
         <v>530</v>
       </c>
-      <c r="AI10" s="11">
+      <c r="AI10" s="10">
         <v>759</v>
       </c>
     </row>
-    <row r="11" ht="33.3" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" spans="1:35" ht="33.25" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>800</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1601</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>1918</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>1856</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>1895</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>1652</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>854</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>6510</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="11">
+      <c r="J11" s="11"/>
+      <c r="K11" s="10">
         <v>1336</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>2105</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>2011</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>2062</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>1729</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <v>864</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>957</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="10">
         <v>6812</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="10">
         <v>1923</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="10">
         <v>2065</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="10">
         <v>2009</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="10">
         <v>1969</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="10">
         <v>1693</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="10">
         <v>919</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="10">
         <v>949</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="10">
         <v>7096</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="10">
         <v>1900</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AB11" s="10">
         <v>2253</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AC11" s="10">
         <v>2047</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AD11" s="10">
         <v>1972</v>
       </c>
-      <c r="AE11" s="11">
+      <c r="AE11" s="10">
         <v>1712</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AF11" s="10">
         <v>928</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AG11" s="10">
         <v>983</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AH11" s="10">
         <v>7236</v>
       </c>
-      <c r="AI11" s="11">
+      <c r="AI11" s="10">
         <v>19366</v>
       </c>
     </row>
-    <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
+    <row r="12" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
     </row>
-    <row r="13" ht="18.3" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
+    <row r="13" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
     </row>
-    <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
+    <row r="14" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
     </row>
-    <row r="15" ht="18.3" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
+    <row r="15" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
     </row>
-    <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
+    <row r="16" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
     </row>
-    <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
+    <row r="17" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
     </row>
-    <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
+    <row r="18" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
     </row>
-    <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
+    <row r="19" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
     </row>
-    <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
+    <row r="20" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
     </row>
-    <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
+    <row r="21" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
     </row>
-    <row r="22" ht="18.3" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
+    <row r="22" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
     </row>
-    <row r="23" ht="18.3" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
+    <row r="23" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
     </row>
-    <row r="24" ht="18.3" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
+    <row r="24" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
     </row>
-    <row r="25" ht="18.3" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
+    <row r="25" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
     </row>
-    <row r="26" ht="18.3" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
+    <row r="26" spans="1:35" ht="18.25" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC3B9FC-F6D0-3346-B34F-5D587A64F150}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="107.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="64" customHeight="1">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/M_analysis/analyssis_example_202310-202312/graph-properties_20231001-29.xlsx
+++ b/M_analysis/analyssis_example_202310-202312/graph-properties_20231001-29.xlsx
@@ -1,40 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kouamano/gitsrc/log-analysis/M_analysis/analyssis_example_202310-202312/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E13E29-2F22-0B4A-9A69-0A03600A9363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="シート1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>表1</t>
   </si>
@@ -364,59 +341,16 @@
   </si>
   <si>
     <t>キルヒホフグラフ固有値列のクラス数</t>
-  </si>
-  <si>
-    <t>宿題となっておりますReferred graph論文のまとめ、及びNII RDCユーザーストーリー関連部分の文章案作成は別途進めております。どうぞよろしくお願いします。</t>
-  </si>
-  <si>
-    <t>南山さん</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ミナミヤマ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メモ・宿題</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">シュクダイ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>大波さん</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">オオナミサン </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>曜日で集計をわけるのはどうか -&gt; 被覆の仮説の検証（傍証）</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヨウビデ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">シュウケイクォ </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t xml:space="preserve">ヒフク </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">カセツノ </t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t xml:space="preserve">ケンショウ </t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t xml:space="preserve">ボウショウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -431,20 +365,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Tsukushi A Round Gothic Bold"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -582,152 +502,90 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -926,7 +784,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -944,7 +802,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +831,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +856,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +881,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +906,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +931,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +956,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +981,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1006,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1031,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,15 +1044,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1211,7 +1063,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1229,7 +1081,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1106,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1131,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1156,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1181,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1206,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,7 +1231,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1256,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1429,7 +1281,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1454,7 +1306,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1467,15 +1319,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1489,7 +1335,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1507,7 +1353,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1536,7 +1382,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,7 +1407,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1586,7 +1432,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1611,7 +1457,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1636,7 +1482,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1661,7 +1507,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1686,7 +1532,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1711,7 +1557,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1736,7 +1582,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1749,1668 +1595,1617 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI26"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:AI26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI10" sqref="AI10"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.59765625" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="36" width="19.59765625" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="19.59765625" style="1"/>
+    <col min="1" max="35" width="19.6016" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" ht="33.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" ht="33.5" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" t="s" s="4">
         <v>30</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" t="s" s="4">
         <v>31</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" t="s" s="4">
         <v>33</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" t="s" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="18.5" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7" t="s">
+    <row r="3" ht="18.5" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
     </row>
-    <row r="4" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" ht="18.3" customHeight="1">
+      <c r="A4" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>121359</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>183802</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>190096</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>189729</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>174420</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>167499</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>116212</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <f>SUM(B4:H4)</f>
         <v>1143117</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10">
+      <c r="J4" s="12"/>
+      <c r="K4" s="11">
         <v>147944</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="11">
         <v>188221</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="11">
         <v>185423</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="11">
         <v>186335</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="11">
         <v>168331</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="11">
         <v>140863</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="11">
         <v>116407</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="11">
         <v>1133524</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="11">
         <v>188042</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="11">
         <v>188539</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="11">
         <v>184087</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="11">
         <v>183591</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="11">
         <v>184136</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="11">
         <v>132101</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="11">
         <v>145188</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="11">
         <v>1205684</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="11">
         <v>195566</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="11">
         <v>199702</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="11">
         <v>196779</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="11">
         <v>196291</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AE4" s="11">
         <v>170944</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="11">
         <v>133524</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="11">
         <v>138322</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="11">
         <v>1231128</v>
       </c>
-      <c r="AI4" s="10">
+      <c r="AI4" s="11">
         <v>4713453</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" ht="18.3" customHeight="1">
+      <c r="A5" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="B5" s="9">
-        <v>2.8480706004499998</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3.7295241618700001</v>
-      </c>
-      <c r="D5" s="10">
-        <v>4.3699762225400001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>4.5062536565300002</v>
-      </c>
-      <c r="F5" s="10">
-        <v>4.89599816535</v>
-      </c>
-      <c r="G5" s="10">
-        <v>4.0961737085000003</v>
-      </c>
-      <c r="H5" s="10">
-        <v>3.1467232299600001</v>
-      </c>
-      <c r="I5" s="10">
-        <v>4.0438266599099997</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10">
-        <v>3.8377156221300002</v>
-      </c>
-      <c r="L5" s="10">
-        <v>4.7304764080500004</v>
-      </c>
-      <c r="M5" s="10">
-        <v>4.7864612264900002</v>
-      </c>
-      <c r="N5" s="10">
-        <v>7.2854804518699998</v>
-      </c>
-      <c r="O5" s="10">
-        <v>4.2177792563500001</v>
-      </c>
-      <c r="P5" s="10">
-        <v>3.06279150664</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>3.32738581013</v>
-      </c>
-      <c r="R5" s="10">
-        <v>4.6156499553600003</v>
-      </c>
-      <c r="S5" s="10">
-        <v>4.3357813679900001</v>
-      </c>
-      <c r="T5" s="10">
-        <v>4.7199465362600002</v>
-      </c>
-      <c r="U5" s="10">
-        <v>4.5091722935399998</v>
-      </c>
-      <c r="V5" s="10">
-        <v>5.1839578192799998</v>
-      </c>
-      <c r="W5" s="10">
-        <v>3.92985619325</v>
-      </c>
-      <c r="X5" s="10">
-        <v>2.8330065631600001</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>2.9146968068999999</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>4.1537094296700001</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>4.2727212296600001</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>5.3106678951599999</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>4.5206907241099996</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>4.8032360118400002</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>4.3563389180099996</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>3.2990773194299998</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>3.07527363688</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>4.3367813907199997</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>4.2859684821300004</v>
+      <c r="B5" s="10">
+        <v>2.848070600450</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3.729524161870</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4.369976222540</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4.506253656530</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4.895998165350</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4.0961737085</v>
+      </c>
+      <c r="H5" s="11">
+        <v>3.146723229960</v>
+      </c>
+      <c r="I5" s="11">
+        <v>4.043826659910</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11">
+        <v>3.837715622130</v>
+      </c>
+      <c r="L5" s="11">
+        <v>4.730476408050</v>
+      </c>
+      <c r="M5" s="11">
+        <v>4.786461226490</v>
+      </c>
+      <c r="N5" s="11">
+        <v>7.285480451870</v>
+      </c>
+      <c r="O5" s="11">
+        <v>4.217779256350</v>
+      </c>
+      <c r="P5" s="11">
+        <v>3.062791506640</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>3.327385810130</v>
+      </c>
+      <c r="R5" s="11">
+        <v>4.615649955360</v>
+      </c>
+      <c r="S5" s="11">
+        <v>4.335781367990</v>
+      </c>
+      <c r="T5" s="11">
+        <v>4.719946536260</v>
+      </c>
+      <c r="U5" s="11">
+        <v>4.509172293540</v>
+      </c>
+      <c r="V5" s="11">
+        <v>5.183957819280</v>
+      </c>
+      <c r="W5" s="11">
+        <v>3.929856193250</v>
+      </c>
+      <c r="X5" s="11">
+        <v>2.833006563160</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>2.9146968069</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>4.153709429670</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>4.272721229660</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>5.310667895160</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>4.520690724110</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>4.803236011840</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>4.356338918010</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>3.299077319430</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>3.075273636880</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>4.336781390720</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>4.285968482130</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="63.25" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" ht="63.3" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" t="s" s="14">
         <v>40</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" t="s" s="14">
         <v>41</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" t="s" s="14">
         <v>42</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" t="s" s="14">
         <v>43</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" t="s" s="14">
         <v>44</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" t="s" s="14">
         <v>45</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" t="s" s="14">
         <v>46</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="13" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" t="s" s="14">
         <v>48</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" t="s" s="14">
         <v>49</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" t="s" s="14">
         <v>50</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" t="s" s="14">
         <v>52</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" t="s" s="14">
         <v>53</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" t="s" s="14">
         <v>54</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" t="s" s="14">
         <v>55</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" t="s" s="14">
         <v>56</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" t="s" s="14">
         <v>57</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" t="s" s="14">
         <v>58</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" t="s" s="14">
         <v>59</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="X6" t="s" s="14">
         <v>60</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="Z6" t="s" s="14">
         <v>62</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AA6" t="s" s="14">
         <v>63</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AB6" t="s" s="14">
         <v>64</v>
       </c>
-      <c r="AC6" s="13" t="s">
+      <c r="AC6" t="s" s="14">
         <v>65</v>
       </c>
-      <c r="AD6" s="13" t="s">
+      <c r="AD6" t="s" s="14">
         <v>66</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AE6" t="s" s="14">
         <v>67</v>
       </c>
-      <c r="AF6" s="13" t="s">
+      <c r="AF6" t="s" s="14">
         <v>68</v>
       </c>
-      <c r="AG6" s="13" t="s">
+      <c r="AG6" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="AH6" s="13" t="s">
+      <c r="AH6" t="s" s="14">
         <v>70</v>
       </c>
-      <c r="AI6" s="13" t="s">
+      <c r="AI6" t="s" s="14">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="9">
         <v>72</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>3.1264677527</v>
       </c>
-      <c r="C7" s="10">
-        <v>3.7017442682900001</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4.0597382375200004</v>
-      </c>
-      <c r="E7" s="10">
-        <v>4.1312450916800003</v>
-      </c>
-      <c r="F7" s="10">
-        <v>4.4253984634799997</v>
-      </c>
-      <c r="G7" s="10">
-        <v>3.93829813909</v>
-      </c>
-      <c r="H7" s="10">
-        <v>3.2161738890999998</v>
-      </c>
-      <c r="I7" s="10">
-        <v>3.8672043194199999</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10">
-        <v>3.7409830746799999</v>
-      </c>
-      <c r="L7" s="10">
-        <v>4.2878477959400003</v>
-      </c>
-      <c r="M7" s="10">
-        <v>4.3516446179799999</v>
-      </c>
-      <c r="N7" s="10">
-        <v>4.3071564655100003</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="C7" s="11">
+        <v>3.701744268290</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4.059738237520</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4.131245091680</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4.425398463480</v>
+      </c>
+      <c r="G7" s="11">
+        <v>3.938298139090</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3.2161738891</v>
+      </c>
+      <c r="I7" s="11">
+        <v>3.867204319420</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11">
+        <v>3.740983074680</v>
+      </c>
+      <c r="L7" s="11">
+        <v>4.287847795940</v>
+      </c>
+      <c r="M7" s="11">
+        <v>4.351644617980</v>
+      </c>
+      <c r="N7" s="11">
+        <v>4.307156465510</v>
+      </c>
+      <c r="O7" s="11">
         <v>3.9907860109</v>
       </c>
-      <c r="P7" s="10">
-        <v>3.0925296209800002</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>3.4638638569800002</v>
-      </c>
-      <c r="R7" s="10">
-        <v>3.9528073512300002</v>
-      </c>
-      <c r="S7" s="10">
-        <v>4.0655651397000003</v>
-      </c>
-      <c r="T7" s="10">
-        <v>4.3113626358500001</v>
-      </c>
-      <c r="U7" s="10">
-        <v>4.1928327366999998</v>
-      </c>
-      <c r="V7" s="10">
-        <v>4.4225370524700001</v>
-      </c>
-      <c r="W7" s="10">
-        <v>3.8386410044699999</v>
-      </c>
-      <c r="X7" s="10">
-        <v>3.1423456294799998</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>3.1374356007399999</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>3.9302155456999999</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>4.04496691654</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>4.5693733663199998</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>4.1117954659800002</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>4.1777615886600001</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>4.11415434294</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>3.3491881609299998</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>3.2923468428699998</v>
-      </c>
-      <c r="AH7" s="10">
-        <v>4.0114707812699999</v>
-      </c>
-      <c r="AI7" s="10">
-        <v>3.94159037971</v>
+      <c r="P7" s="11">
+        <v>3.092529620980</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>3.463863856980</v>
+      </c>
+      <c r="R7" s="11">
+        <v>3.952807351230</v>
+      </c>
+      <c r="S7" s="11">
+        <v>4.0655651397</v>
+      </c>
+      <c r="T7" s="11">
+        <v>4.311362635850</v>
+      </c>
+      <c r="U7" s="11">
+        <v>4.1928327367</v>
+      </c>
+      <c r="V7" s="11">
+        <v>4.422537052470</v>
+      </c>
+      <c r="W7" s="11">
+        <v>3.838641004470</v>
+      </c>
+      <c r="X7" s="11">
+        <v>3.142345629480</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>3.137435600740</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>3.9302155457</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>4.044966916540</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>4.569373366320</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>4.111795465980</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>4.177761588660</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>4.114154342940</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>3.349188160930</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>3.292346842870</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>4.011470781270</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>3.941590379710</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="63.25" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" ht="63.3" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>73</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" t="s" s="14">
         <v>75</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" t="s" s="14">
         <v>76</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" t="s" s="14">
         <v>77</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" t="s" s="14">
         <v>78</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" t="s" s="14">
         <v>79</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" t="s" s="14">
         <v>80</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" t="s" s="14">
         <v>81</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="13" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" t="s" s="14">
         <v>83</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" t="s" s="14">
         <v>85</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" t="s" s="14">
         <v>86</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" t="s" s="14">
         <v>87</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" t="s" s="14">
         <v>88</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" t="s" s="14">
         <v>89</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" t="s" s="14">
         <v>90</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" t="s" s="14">
         <v>91</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" t="s" s="14">
         <v>92</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="V8" t="s" s="14">
         <v>93</v>
       </c>
-      <c r="W8" s="13" t="s">
+      <c r="W8" t="s" s="14">
         <v>94</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="X8" t="s" s="14">
         <v>95</v>
       </c>
-      <c r="Y8" s="13" t="s">
+      <c r="Y8" t="s" s="14">
         <v>96</v>
       </c>
-      <c r="Z8" s="13" t="s">
+      <c r="Z8" t="s" s="14">
         <v>97</v>
       </c>
-      <c r="AA8" s="13" t="s">
+      <c r="AA8" t="s" s="14">
         <v>98</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AB8" t="s" s="14">
         <v>99</v>
       </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AC8" t="s" s="14">
         <v>100</v>
       </c>
-      <c r="AD8" s="13" t="s">
+      <c r="AD8" t="s" s="14">
         <v>101</v>
       </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AE8" t="s" s="14">
         <v>102</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AF8" t="s" s="14">
         <v>103</v>
       </c>
-      <c r="AG8" s="13" t="s">
+      <c r="AG8" t="s" s="14">
         <v>104</v>
       </c>
-      <c r="AH8" s="13" t="s">
+      <c r="AH8" t="s" s="14">
         <v>105</v>
       </c>
-      <c r="AI8" s="13" t="s">
+      <c r="AI8" t="s" s="14">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="48.25" customHeight="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" ht="48.3" customHeight="1">
+      <c r="A9" t="s" s="9">
         <v>107</v>
       </c>
-      <c r="B9" s="9">
-        <v>1.3393434237799999</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1.38041346313</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1.42821897931</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1.43912518011</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1.42932222851</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1.3940633368699999</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1.41989003906</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1.41037268692</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10">
-        <v>1.40012379412</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="B9" s="10">
+        <v>1.339343423780</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1.380413463130</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.428218979310</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1.439125180110</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1.429322228510</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1.394063336870</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1.419890039060</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.410372686920</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11">
+        <v>1.400123794120</v>
+      </c>
+      <c r="L9" s="11">
         <v>1.4387759719</v>
       </c>
-      <c r="M9" s="10">
-        <v>1.4280933010700001</v>
-      </c>
-      <c r="N9" s="10">
-        <v>2.2029439876399999</v>
-      </c>
-      <c r="O9" s="10">
-        <v>1.41025778541</v>
-      </c>
-      <c r="P9" s="10">
-        <v>1.46367892523</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>1.3504747028499999</v>
-      </c>
-      <c r="R9" s="10">
-        <v>1.5631395503800001</v>
-      </c>
-      <c r="S9" s="10">
-        <v>1.4143497757800001</v>
-      </c>
-      <c r="T9" s="10">
-        <v>1.4253789316700001</v>
-      </c>
-      <c r="U9" s="10">
-        <v>1.41227952273</v>
-      </c>
-      <c r="V9" s="10">
-        <v>1.5146535274299999</v>
-      </c>
-      <c r="W9" s="10">
-        <v>1.3844146502000001</v>
-      </c>
-      <c r="X9" s="10">
-        <v>1.3223853911200001</v>
-      </c>
-      <c r="Y9" s="10">
-        <v>1.36364192956</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>1.41754398777</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>1.4032077676900001</v>
-      </c>
-      <c r="AB9" s="10">
-        <v>1.48784320107</v>
-      </c>
-      <c r="AC9" s="10">
-        <v>1.4527595960399999</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>1.5115155362699999</v>
-      </c>
-      <c r="AE9" s="10">
-        <v>1.39888343296</v>
-      </c>
-      <c r="AF9" s="10">
-        <v>1.40434783995</v>
-      </c>
-      <c r="AG9" s="10">
-        <v>1.34153941252</v>
-      </c>
-      <c r="AH9" s="10">
-        <v>1.44008748738</v>
-      </c>
-      <c r="AI9" s="10">
-        <v>1.45702423821</v>
+      <c r="M9" s="11">
+        <v>1.428093301070</v>
+      </c>
+      <c r="N9" s="11">
+        <v>2.202943987640</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1.410257785410</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1.463678925230</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1.350474702850</v>
+      </c>
+      <c r="R9" s="11">
+        <v>1.563139550380</v>
+      </c>
+      <c r="S9" s="11">
+        <v>1.414349775780</v>
+      </c>
+      <c r="T9" s="11">
+        <v>1.425378931670</v>
+      </c>
+      <c r="U9" s="11">
+        <v>1.412279522730</v>
+      </c>
+      <c r="V9" s="11">
+        <v>1.514653527430</v>
+      </c>
+      <c r="W9" s="11">
+        <v>1.3844146502</v>
+      </c>
+      <c r="X9" s="11">
+        <v>1.322385391120</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>1.363641929560</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>1.417543987770</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>1.403207767690</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>1.487843201070</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>1.452759596040</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>1.511515536270</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>1.398883432960</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>1.404347839950</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>1.341539412520</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>1.440087487380</v>
+      </c>
+      <c r="AI9" s="11">
+        <v>1.457024238210</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="33.25" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" ht="33.3" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>108</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>198</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>277</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>297</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>295</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>302</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="11">
         <v>250</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="11">
         <v>216</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>498</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10">
+      <c r="J10" s="12"/>
+      <c r="K10" s="11">
         <v>234</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11">
         <v>284</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="11">
         <v>283</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="11">
         <v>286</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="11">
         <v>277</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="11">
         <v>231</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="11">
         <v>229</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="11">
         <v>474</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="11">
         <v>283</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="11">
         <v>305</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="11">
         <v>301</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="11">
         <v>288</v>
       </c>
-      <c r="W10" s="10">
+      <c r="W10" s="11">
         <v>276</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="11">
         <v>209</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="11">
         <v>199</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="11">
         <v>487</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AA10" s="11">
         <v>279</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="11">
         <v>331</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="11">
         <v>324</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AD10" s="11">
         <v>305</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AE10" s="11">
         <v>294</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AF10" s="11">
         <v>232</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="11">
         <v>226</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AH10" s="11">
         <v>530</v>
       </c>
-      <c r="AI10" s="10">
+      <c r="AI10" s="11">
         <v>759</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="33.25" customHeight="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" ht="33.3" customHeight="1">
+      <c r="A11" t="s" s="9">
         <v>109</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>800</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>1601</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>1918</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>1856</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>1895</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="11">
         <v>1652</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="11">
         <v>854</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="11">
         <v>6510</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10">
+      <c r="J11" s="12"/>
+      <c r="K11" s="11">
         <v>1336</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="11">
         <v>2105</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="11">
         <v>2011</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="11">
         <v>2062</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="11">
         <v>1729</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="11">
         <v>864</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="11">
         <v>957</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="11">
         <v>6812</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="11">
         <v>1923</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="11">
         <v>2065</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="11">
         <v>2009</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="11">
         <v>1969</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W11" s="11">
         <v>1693</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X11" s="11">
         <v>919</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="11">
         <v>949</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="11">
         <v>7096</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="11">
         <v>1900</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AB11" s="11">
         <v>2253</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AC11" s="11">
         <v>2047</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AD11" s="11">
         <v>1972</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AE11" s="11">
         <v>1712</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AF11" s="11">
         <v>928</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11" s="11">
         <v>983</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AH11" s="11">
         <v>7236</v>
       </c>
-      <c r="AI11" s="10">
+      <c r="AI11" s="11">
         <v>19366</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
     </row>
-    <row r="13" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
+    <row r="13" ht="18.3" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
     </row>
-    <row r="14" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
     </row>
-    <row r="15" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
     </row>
-    <row r="16" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
     </row>
-    <row r="17" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
     </row>
-    <row r="18" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
     </row>
-    <row r="19" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
     </row>
-    <row r="20" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
     </row>
-    <row r="21" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
     </row>
-    <row r="22" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
     </row>
-    <row r="23" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
     </row>
-    <row r="24" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
     </row>
-    <row r="25" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
+    <row r="25" ht="18.3" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
     </row>
-    <row r="26" spans="1:35" ht="18.25" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
+    <row r="26" ht="18.3" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC3B9FC-F6D0-3346-B34F-5D587A64F150}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="3" max="3" width="107.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14">
-      <c r="A1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="64" customHeight="1">
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14">
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>